--- a/Colaboraciones plan de ventas/Fechas de zarpe - Logística.xlsx
+++ b/Colaboraciones plan de ventas/Fechas de zarpe - Logística.xlsx
@@ -193,7 +193,7 @@
       <color rgb="00ffffff"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="34">
     <fill>
       <patternFill/>
     </fill>
@@ -359,8 +359,23 @@
         <fgColor rgb="00a9d08d"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002f5496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c6eecd"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -656,6 +671,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="002f5496"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="002f5496"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -672,7 +701,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="3"/>
@@ -986,6 +1015,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="17" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13372,12 +13424,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="165" t="inlineStr">
+      <c r="B1" s="188" t="inlineStr">
         <is>
           <t>Cerdo</t>
         </is>
       </c>
-      <c r="I1" s="165" t="inlineStr">
+      <c r="I1" s="188" t="inlineStr">
         <is>
           <t>Pollo</t>
         </is>
@@ -14085,7 +14137,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="176" t="inlineStr">
+      <c r="A26" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agro Sudamerica</t>
         </is>
@@ -14216,7 +14268,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="176" t="inlineStr">
+      <c r="A31" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agrosuper Asia</t>
         </is>
@@ -14232,7 +14284,7 @@
       <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="H31" s="176" t="inlineStr">
+      <c r="H31" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agrosuper Asia</t>
         </is>
@@ -14976,7 +15028,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="176" t="inlineStr">
+      <c r="A59" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agrosuper Asia</t>
         </is>
@@ -14992,7 +15044,7 @@
       <c r="E59" t="n">
         <v>1</v>
       </c>
-      <c r="H59" s="176" t="inlineStr">
+      <c r="H59" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agrosuper Asia</t>
         </is>
@@ -15034,7 +15086,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="176" t="inlineStr">
+      <c r="A61" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agro Sudamerica</t>
         </is>
@@ -15050,7 +15102,7 @@
       <c r="E61" t="n">
         <v>1</v>
       </c>
-      <c r="H61" s="176" t="inlineStr">
+      <c r="H61" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agro Sudamerica</t>
         </is>
@@ -15765,7 +15817,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="176" t="inlineStr">
+      <c r="A88" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agrosuper Asia, Agro Mexico</t>
         </is>
@@ -15800,7 +15852,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="176" t="inlineStr">
+      <c r="A89" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agro Sudamerica</t>
         </is>
@@ -15816,7 +15868,7 @@
       <c r="E89" t="n">
         <v>1</v>
       </c>
-      <c r="H89" s="176" t="inlineStr">
+      <c r="H89" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agro Sudamerica</t>
         </is>
@@ -16630,7 +16682,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="176" t="inlineStr">
+      <c r="A120" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agrosuper Asia, Agro Mexico</t>
         </is>
@@ -16646,7 +16698,7 @@
       <c r="E120" t="n">
         <v>1</v>
       </c>
-      <c r="H120" s="176" t="inlineStr">
+      <c r="H120" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agrosuper Asia, Agro Mexico</t>
         </is>
@@ -17462,7 +17514,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="176" t="inlineStr">
+      <c r="A151" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agrosuper Asia, Agro Mexico, Agrosuper Asia, Agro Mexico</t>
         </is>
@@ -17478,7 +17530,7 @@
       <c r="E151" t="n">
         <v>1</v>
       </c>
-      <c r="H151" s="176" t="inlineStr">
+      <c r="H151" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agrosuper Asia, Agro Mexico, Agrosuper Asia, Agro Mexico</t>
         </is>
@@ -17520,7 +17572,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="176" t="inlineStr">
+      <c r="A153" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agro Sudamerica, Agro Sudamerica</t>
         </is>
@@ -17536,7 +17588,7 @@
       <c r="E153" t="n">
         <v>0.33</v>
       </c>
-      <c r="H153" s="176" t="inlineStr">
+      <c r="H153" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agro Sudamerica, Agro Sudamerica</t>
         </is>
@@ -19106,7 +19158,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="176" t="inlineStr">
+      <c r="A214" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agrosuper Asia, Agro Mexico</t>
         </is>
@@ -19122,7 +19174,7 @@
       <c r="E214" t="n">
         <v>1</v>
       </c>
-      <c r="H214" s="176" t="inlineStr">
+      <c r="H214" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agrosuper Asia, Agro Mexico</t>
         </is>
@@ -19140,7 +19192,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="176" t="inlineStr">
+      <c r="A215" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agro Sudamerica</t>
         </is>
@@ -19156,7 +19208,7 @@
       <c r="E215" t="n">
         <v>1</v>
       </c>
-      <c r="H215" s="176" t="inlineStr">
+      <c r="H215" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agro Sudamerica</t>
         </is>
@@ -19920,7 +19972,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="176" t="inlineStr">
+      <c r="A244" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agrosuper Asia, Agro Sudamerica, Agro Mexico</t>
         </is>
@@ -19936,7 +19988,7 @@
       <c r="E244" t="n">
         <v>0.33</v>
       </c>
-      <c r="H244" s="176" t="inlineStr">
+      <c r="H244" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agrosuper Asia, Agro Sudamerica, Agro Mexico</t>
         </is>
@@ -20660,7 +20712,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="176" t="inlineStr">
+      <c r="A272" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agrosuper Asia, Agro Sudamerica, Agro Mexico</t>
         </is>
@@ -20676,7 +20728,7 @@
       <c r="E272" t="n">
         <v>0.33</v>
       </c>
-      <c r="H272" s="176" t="inlineStr">
+      <c r="H272" s="197" t="inlineStr">
         <is>
           <t>Zarpe: , Agrosuper Asia, Agro Sudamerica, Agro Mexico</t>
         </is>
@@ -23910,7 +23962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23922,6 +23974,7 @@
     <col width="25" customWidth="1" style="142" min="3" max="3"/>
     <col width="12" customWidth="1" style="142" min="4" max="4"/>
     <col width="20" customWidth="1" style="142" min="5" max="5"/>
+    <col width="20" customWidth="1" style="142" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -23952,10 +24005,15 @@
       </c>
       <c r="F1" s="166" t="inlineStr">
         <is>
+          <t>Corte de producción</t>
+        </is>
+      </c>
+      <c r="G1" s="166" t="inlineStr">
+        <is>
           <t>Ponderación</t>
         </is>
       </c>
-      <c r="G1" s="166" t="inlineStr">
+      <c r="H1" s="166" t="inlineStr">
         <is>
           <t>Fechas</t>
         </is>
@@ -23967,7 +24025,7 @@
       </c>
       <c r="B2" s="182" t="inlineStr">
         <is>
-          <t>Febrero</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -23985,8 +24043,11 @@
           <t>agro mexico</t>
         </is>
       </c>
-      <c r="F2" s="20" t="n">
-        <v>0.3438086303939962</v>
+      <c r="F2" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -24005,8 +24066,11 @@
           <t>agrosuper brasil</t>
         </is>
       </c>
-      <c r="F3" s="20" t="n">
-        <v>0.6407129455909943</v>
+      <c r="F3" s="182" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="G3" s="20" t="n">
+        <v>0.6986019736842106</v>
       </c>
     </row>
     <row r="4">
@@ -24025,8 +24089,11 @@
           <t>exportacion directa</t>
         </is>
       </c>
-      <c r="F4" s="20" t="n">
-        <v>0.7030956848030019</v>
+      <c r="F4" s="182" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="G4" s="20" t="n">
+        <v>0.7808388157894738</v>
       </c>
     </row>
     <row r="5">
@@ -24045,8 +24112,11 @@
           <t>agro sudamerica</t>
         </is>
       </c>
-      <c r="F5" s="20" t="n">
-        <v>0.3438086303939962</v>
+      <c r="F5" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -24065,8 +24135,11 @@
           <t>agrosuper asia</t>
         </is>
       </c>
-      <c r="F6" s="20" t="n">
-        <v>0.3438086303939962</v>
+      <c r="F6" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -24085,8 +24158,11 @@
           <t>agro mexico</t>
         </is>
       </c>
-      <c r="F7" s="20" t="n">
-        <v>0.5</v>
+      <c r="F7" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -24105,8 +24181,11 @@
           <t>agrosuper brasil</t>
         </is>
       </c>
-      <c r="F8" s="20" t="n">
-        <v>0.75</v>
+      <c r="F8" s="182" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="G8" s="20" t="n">
+        <v>0.7944078947368421</v>
       </c>
     </row>
     <row r="9">
@@ -24125,8 +24204,11 @@
           <t>exportacion directa</t>
         </is>
       </c>
-      <c r="F9" s="20" t="n">
-        <v>0.7030956848030019</v>
+      <c r="F9" s="182" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>0.7808388157894738</v>
       </c>
     </row>
     <row r="10">
@@ -24145,8 +24227,11 @@
           <t>agro sudamerica</t>
         </is>
       </c>
-      <c r="F10" s="20" t="n">
-        <v>0.5</v>
+      <c r="F10" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -24165,8 +24250,11 @@
           <t>agrosuper asia</t>
         </is>
       </c>
-      <c r="F11" s="20" t="n">
-        <v>0.5</v>
+      <c r="F11" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -24185,8 +24273,11 @@
           <t>agro mexico</t>
         </is>
       </c>
-      <c r="F12" s="20" t="n">
-        <v>0.5</v>
+      <c r="F12" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -24205,8 +24296,11 @@
           <t>agrosuper brasil</t>
         </is>
       </c>
-      <c r="F13" s="20" t="n">
-        <v>0.75</v>
+      <c r="F13" s="182" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <v>0.7944078947368421</v>
       </c>
     </row>
     <row r="14">
@@ -24225,8 +24319,11 @@
           <t>exportacion directa</t>
         </is>
       </c>
-      <c r="F14" s="20" t="n">
-        <v>0.7030956848030019</v>
+      <c r="F14" s="182" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="G14" s="20" t="n">
+        <v>0.7808388157894738</v>
       </c>
     </row>
     <row r="15">
@@ -24245,8 +24342,11 @@
           <t>agro sudamerica</t>
         </is>
       </c>
-      <c r="F15" s="20" t="n">
-        <v>0.5</v>
+      <c r="F15" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -24265,8 +24365,11 @@
           <t>agrosuper asia</t>
         </is>
       </c>
-      <c r="F16" s="20" t="n">
-        <v>0.5</v>
+      <c r="F16" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24285,8 +24388,11 @@
           <t>agro mexico</t>
         </is>
       </c>
-      <c r="F17" s="20" t="n">
-        <v>0.5</v>
+      <c r="F17" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -24305,8 +24411,11 @@
           <t>agrosuper brasil</t>
         </is>
       </c>
-      <c r="F18" s="20" t="n">
-        <v>0.75</v>
+      <c r="F18" s="182" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="G18" s="20" t="n">
+        <v>0.7944078947368421</v>
       </c>
     </row>
     <row r="19">
@@ -24325,8 +24434,11 @@
           <t>exportacion directa</t>
         </is>
       </c>
-      <c r="F19" s="20" t="n">
-        <v>0.7030956848030019</v>
+      <c r="F19" s="182" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="G19" s="20" t="n">
+        <v>0.7808388157894738</v>
       </c>
     </row>
     <row r="20">
@@ -24345,32 +24457,37 @@
           <t>agro sudamerica</t>
         </is>
       </c>
-      <c r="F20" s="20" t="n">
-        <v>0.5</v>
+      <c r="F20" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="183" t="n"/>
-      <c r="B21" s="183" t="n"/>
-      <c r="C21" s="183" t="inlineStr">
+      <c r="A21" s="190" t="n"/>
+      <c r="B21" s="190" t="n"/>
+      <c r="C21" s="190" t="inlineStr">
         <is>
           <t>Elaboradoagrosuper asia</t>
         </is>
       </c>
-      <c r="D21" s="183" t="inlineStr">
+      <c r="D21" s="190" t="inlineStr">
         <is>
           <t>Elaborado</t>
         </is>
       </c>
-      <c r="E21" s="183" t="inlineStr">
+      <c r="E21" s="190" t="inlineStr">
         <is>
           <t>agrosuper asia</t>
         </is>
       </c>
-      <c r="F21" s="184" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="183" t="n"/>
+      <c r="F21" s="191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="182" t="n">
@@ -24378,7 +24495,7 @@
       </c>
       <c r="B22" s="182" t="inlineStr">
         <is>
-          <t>Marzo</t>
+          <t>Abril</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -24396,7 +24513,10 @@
           <t>agro mexico</t>
         </is>
       </c>
-      <c r="F22" s="20" t="n">
+      <c r="F22" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24416,8 +24536,11 @@
           <t>agrosuper brasil</t>
         </is>
       </c>
-      <c r="F23" s="20" t="n">
-        <v>0.6986019736842106</v>
+      <c r="F23" s="182" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="G23" s="20" t="n">
+        <v>0.5968054211035818</v>
       </c>
     </row>
     <row r="24">
@@ -24436,8 +24559,11 @@
           <t>exportacion directa</t>
         </is>
       </c>
-      <c r="F24" s="20" t="n">
-        <v>0.7808388157894738</v>
+      <c r="F24" s="182" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="G24" s="20" t="n">
+        <v>0.6936108422071636</v>
       </c>
     </row>
     <row r="25">
@@ -24456,7 +24582,10 @@
           <t>agro sudamerica</t>
         </is>
       </c>
-      <c r="F25" s="20" t="n">
+      <c r="F25" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24476,7 +24605,10 @@
           <t>agrosuper asia</t>
         </is>
       </c>
-      <c r="F26" s="20" t="n">
+      <c r="F26" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24496,7 +24628,10 @@
           <t>agro mexico</t>
         </is>
       </c>
-      <c r="F27" s="20" t="n">
+      <c r="F27" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24516,8 +24651,11 @@
           <t>agrosuper brasil</t>
         </is>
       </c>
-      <c r="F28" s="20" t="n">
-        <v>0.7944078947368421</v>
+      <c r="F28" s="182" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="G28" s="20" t="n">
+        <v>0.7579864472410455</v>
       </c>
     </row>
     <row r="29">
@@ -24536,8 +24674,11 @@
           <t>exportacion directa</t>
         </is>
       </c>
-      <c r="F29" s="20" t="n">
-        <v>0.7808388157894738</v>
+      <c r="F29" s="182" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="G29" s="20" t="n">
+        <v>0.7095837366892546</v>
       </c>
     </row>
     <row r="30">
@@ -24556,7 +24697,10 @@
           <t>agro sudamerica</t>
         </is>
       </c>
-      <c r="F30" s="20" t="n">
+      <c r="F30" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24576,7 +24720,10 @@
           <t>agrosuper asia</t>
         </is>
       </c>
-      <c r="F31" s="20" t="n">
+      <c r="F31" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24596,7 +24743,10 @@
           <t>agro mexico</t>
         </is>
       </c>
-      <c r="F32" s="20" t="n">
+      <c r="F32" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24616,8 +24766,11 @@
           <t>agrosuper brasil</t>
         </is>
       </c>
-      <c r="F33" s="20" t="n">
-        <v>0.7944078947368421</v>
+      <c r="F33" s="182" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="G33" s="20" t="n">
+        <v>0.7579864472410455</v>
       </c>
     </row>
     <row r="34">
@@ -24636,8 +24789,11 @@
           <t>exportacion directa</t>
         </is>
       </c>
-      <c r="F34" s="20" t="n">
-        <v>0.7808388157894738</v>
+      <c r="F34" s="182" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="G34" s="20" t="n">
+        <v>0.7095837366892546</v>
       </c>
     </row>
     <row r="35">
@@ -24656,7 +24812,10 @@
           <t>agro sudamerica</t>
         </is>
       </c>
-      <c r="F35" s="20" t="n">
+      <c r="F35" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24676,7 +24835,10 @@
           <t>agrosuper asia</t>
         </is>
       </c>
-      <c r="F36" s="20" t="n">
+      <c r="F36" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24696,7 +24858,10 @@
           <t>agro mexico</t>
         </is>
       </c>
-      <c r="F37" s="20" t="n">
+      <c r="F37" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24716,8 +24881,11 @@
           <t>agrosuper brasil</t>
         </is>
       </c>
-      <c r="F38" s="20" t="n">
-        <v>0.7944078947368421</v>
+      <c r="F38" s="182" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="G38" s="20" t="n">
+        <v>0.7579864472410455</v>
       </c>
     </row>
     <row r="39">
@@ -24736,8 +24904,11 @@
           <t>exportacion directa</t>
         </is>
       </c>
-      <c r="F39" s="20" t="n">
-        <v>0.7808388157894738</v>
+      <c r="F39" s="182" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="G39" s="20" t="n">
+        <v>0.7095837366892546</v>
       </c>
     </row>
     <row r="40">
@@ -24756,32 +24927,37 @@
           <t>agro sudamerica</t>
         </is>
       </c>
-      <c r="F40" s="20" t="n">
+      <c r="F40" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="183" t="n"/>
-      <c r="B41" s="183" t="n"/>
-      <c r="C41" s="183" t="inlineStr">
+      <c r="A41" s="190" t="n"/>
+      <c r="B41" s="190" t="n"/>
+      <c r="C41" s="190" t="inlineStr">
         <is>
           <t>Elaboradoagrosuper asia</t>
         </is>
       </c>
-      <c r="D41" s="183" t="inlineStr">
+      <c r="D41" s="190" t="inlineStr">
         <is>
           <t>Elaborado</t>
         </is>
       </c>
-      <c r="E41" s="183" t="inlineStr">
+      <c r="E41" s="190" t="inlineStr">
         <is>
           <t>agrosuper asia</t>
         </is>
       </c>
-      <c r="F41" s="184" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="183" t="n"/>
+      <c r="F41" s="191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="182" t="n">
@@ -24789,7 +24965,7 @@
       </c>
       <c r="B42" s="182" t="inlineStr">
         <is>
-          <t>Abril</t>
+          <t>Mayo</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -24807,7 +24983,10 @@
           <t>agro mexico</t>
         </is>
       </c>
-      <c r="F42" s="20" t="n">
+      <c r="F42" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24827,8 +25006,11 @@
           <t>agrosuper brasil</t>
         </is>
       </c>
-      <c r="F43" s="20" t="n">
-        <v>0.5968054211035818</v>
+      <c r="F43" s="182" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="G43" s="20" t="n">
+        <v>0.6479289940828403</v>
       </c>
     </row>
     <row r="44">
@@ -24847,8 +25029,11 @@
           <t>exportacion directa</t>
         </is>
       </c>
-      <c r="F44" s="20" t="n">
-        <v>0.6936108422071636</v>
+      <c r="F44" s="182" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="G44" s="20" t="n">
+        <v>0.7747252747252747</v>
       </c>
     </row>
     <row r="45">
@@ -24867,7 +25052,10 @@
           <t>agro sudamerica</t>
         </is>
       </c>
-      <c r="F45" s="20" t="n">
+      <c r="F45" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24887,7 +25075,10 @@
           <t>agrosuper asia</t>
         </is>
       </c>
-      <c r="F46" s="20" t="n">
+      <c r="F46" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24907,7 +25098,10 @@
           <t>agro mexico</t>
         </is>
       </c>
-      <c r="F47" s="20" t="n">
+      <c r="F47" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24927,8 +25121,11 @@
           <t>agrosuper brasil</t>
         </is>
       </c>
-      <c r="F48" s="20" t="n">
-        <v>0.7579864472410455</v>
+      <c r="F48" s="182" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="G48" s="20" t="n">
+        <v>0.8169907016060862</v>
       </c>
     </row>
     <row r="49">
@@ -24947,8 +25144,11 @@
           <t>exportacion directa</t>
         </is>
       </c>
-      <c r="F49" s="20" t="n">
-        <v>0.7095837366892546</v>
+      <c r="F49" s="182" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="G49" s="20" t="n">
+        <v>0.7747252747252747</v>
       </c>
     </row>
     <row r="50">
@@ -24967,7 +25167,10 @@
           <t>agro sudamerica</t>
         </is>
       </c>
-      <c r="F50" s="20" t="n">
+      <c r="F50" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24987,7 +25190,10 @@
           <t>agrosuper asia</t>
         </is>
       </c>
-      <c r="F51" s="20" t="n">
+      <c r="F51" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25007,7 +25213,10 @@
           <t>agro mexico</t>
         </is>
       </c>
-      <c r="F52" s="20" t="n">
+      <c r="F52" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25027,8 +25236,11 @@
           <t>agrosuper brasil</t>
         </is>
       </c>
-      <c r="F53" s="20" t="n">
-        <v>0.7579864472410455</v>
+      <c r="F53" s="182" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="G53" s="20" t="n">
+        <v>0.8169907016060862</v>
       </c>
     </row>
     <row r="54">
@@ -25047,8 +25259,11 @@
           <t>exportacion directa</t>
         </is>
       </c>
-      <c r="F54" s="20" t="n">
-        <v>0.7095837366892546</v>
+      <c r="F54" s="182" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="G54" s="20" t="n">
+        <v>0.7747252747252747</v>
       </c>
     </row>
     <row r="55">
@@ -25067,7 +25282,10 @@
           <t>agro sudamerica</t>
         </is>
       </c>
-      <c r="F55" s="20" t="n">
+      <c r="F55" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25087,7 +25305,10 @@
           <t>agrosuper asia</t>
         </is>
       </c>
-      <c r="F56" s="20" t="n">
+      <c r="F56" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25107,7 +25328,10 @@
           <t>agro mexico</t>
         </is>
       </c>
-      <c r="F57" s="20" t="n">
+      <c r="F57" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25127,8 +25351,11 @@
           <t>agrosuper brasil</t>
         </is>
       </c>
-      <c r="F58" s="20" t="n">
-        <v>0.7579864472410455</v>
+      <c r="F58" s="182" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="G58" s="20" t="n">
+        <v>0.8169907016060862</v>
       </c>
     </row>
     <row r="59">
@@ -25147,8 +25374,11 @@
           <t>exportacion directa</t>
         </is>
       </c>
-      <c r="F59" s="20" t="n">
-        <v>0.7095837366892546</v>
+      <c r="F59" s="182" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="G59" s="20" t="n">
+        <v>0.7747252747252747</v>
       </c>
     </row>
     <row r="60">
@@ -25167,48 +25397,53 @@
           <t>agro sudamerica</t>
         </is>
       </c>
-      <c r="F60" s="20" t="n">
+      <c r="F60" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="183" t="n"/>
-      <c r="B61" s="183" t="n"/>
-      <c r="C61" s="183" t="inlineStr">
+      <c r="A61" s="190" t="n"/>
+      <c r="B61" s="190" t="n"/>
+      <c r="C61" s="190" t="inlineStr">
         <is>
           <t>Elaboradoagrosuper asia</t>
         </is>
       </c>
-      <c r="D61" s="183" t="inlineStr">
+      <c r="D61" s="190" t="inlineStr">
         <is>
           <t>Elaborado</t>
         </is>
       </c>
-      <c r="E61" s="183" t="inlineStr">
+      <c r="E61" s="190" t="inlineStr">
         <is>
           <t>agrosuper asia</t>
         </is>
       </c>
-      <c r="F61" s="184" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="183" t="n"/>
+      <c r="F61" s="191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="180" t="n"/>
-      <c r="B62" s="180" t="n"/>
-      <c r="C62" s="180" t="n"/>
-      <c r="D62" s="180" t="inlineStr">
+      <c r="A62" s="193" t="n"/>
+      <c r="B62" s="193" t="n"/>
+      <c r="C62" s="193" t="n"/>
+      <c r="D62" s="193" t="n"/>
+      <c r="E62" s="193" t="n"/>
+      <c r="F62" s="193" t="inlineStr">
         <is>
           <t>Ponderación promedio</t>
         </is>
       </c>
-      <c r="E62" s="180" t="n"/>
-      <c r="F62" s="181">
-        <f>AVERAGE(F2:F61)</f>
+      <c r="G62" s="194">
+        <f>AVERAGE(G2:G61)</f>
         <v/>
       </c>
-      <c r="G62" s="180" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
